--- a/datasets/complete-set.xlsx
+++ b/datasets/complete-set.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandre.novello.GSI\OneDrive\ProjetosHobbies\Mestrado\GLAMURISE\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandre.novello.GSI\OneDrive\ProjetosHobbies\Mestrado\GLAMORISE\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="238">
   <si>
     <t>id</t>
   </si>
@@ -2143,6 +2143,12 @@
   </si>
   <si>
     <t>não pegou gas production como aggregate field, está reconhecendo mean incorretamente como um verbo, group_by_field: field</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -2245,7 +2251,30 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2571,13 +2600,359 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="5"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2605,7 +2980,53 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2653,6 +3074,29 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
@@ -2660,6 +3104,30 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2702,7 +3170,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2750,30 +3217,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2868,7 +3311,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2889,98 +3331,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -3013,7 +3363,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3028,238 +3377,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -3287,14 +3404,58 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3336,7 +3497,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3393,31 +3553,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3440,97 +3576,13 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color theme="5"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3551,18 +3603,18 @@
     <sortCondition ref="A3"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="9" name="dataset" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="43"/>
-    <tableColumn id="1" name="dataset id" dataDxfId="54" totalsRowDxfId="42"/>
-    <tableColumn id="2" name="aggregation" dataDxfId="53" totalsRowDxfId="41"/>
-    <tableColumn id="3" name="answertype" dataDxfId="52" totalsRowDxfId="40"/>
-    <tableColumn id="4" name="id" dataDxfId="51" totalsRowDxfId="39"/>
-    <tableColumn id="5" name="string" dataDxfId="50" totalsRowDxfId="38"/>
-    <tableColumn id="6" name="lang" dataDxfId="49" totalsRowDxfId="37"/>
-    <tableColumn id="7" name="keywords" dataDxfId="48" totalsRowDxfId="36"/>
-    <tableColumn id="8" name="query" dataDxfId="47" totalsRowDxfId="35"/>
-    <tableColumn id="10" name="aggregate function" dataDxfId="46" totalsRowDxfId="34"/>
-    <tableColumn id="11" name="grouping" dataDxfId="45" totalsRowDxfId="33"/>
-    <tableColumn id="14" name="real aggregation" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="32">
+    <tableColumn id="9" name="dataset" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="1" name="dataset id" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="2" name="aggregation" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="3" name="answertype" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="4" name="id" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="5" name="string" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="6" name="lang" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="7" name="keywords" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="8" name="query" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="10" name="aggregate function" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="11" name="grouping" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="14" name="real aggregation" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3571,8 +3623,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela23" displayName="Tabela23" ref="A1:M51" totalsRowCount="1" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:M50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela23" displayName="Tabela23" ref="A1:N51" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:N50">
     <filterColumn colId="0">
       <filters>
         <filter val="ANP"/>
@@ -3582,22 +3634,23 @@
   <sortState ref="A2:L74">
     <sortCondition ref="A3"/>
   </sortState>
-  <tableColumns count="13">
-    <tableColumn id="9" name="dataset" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="12"/>
-    <tableColumn id="1" name="dataset id" dataDxfId="28" totalsRowDxfId="11"/>
-    <tableColumn id="2" name="aggregation" dataDxfId="27" totalsRowDxfId="10"/>
-    <tableColumn id="3" name="answertype" dataDxfId="26" totalsRowDxfId="9"/>
-    <tableColumn id="4" name="id" dataDxfId="25" totalsRowDxfId="8"/>
-    <tableColumn id="5" name="string" dataDxfId="24" totalsRowDxfId="7"/>
-    <tableColumn id="6" name="lang" dataDxfId="23" totalsRowDxfId="6"/>
-    <tableColumn id="7" name="keywords" dataDxfId="22" totalsRowDxfId="5"/>
-    <tableColumn id="8" name="query" dataDxfId="21" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="aggregate function" dataDxfId="20" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="grouping" dataDxfId="19" totalsRowDxfId="2"/>
-    <tableColumn id="14" name="real aggregation" totalsRowFunction="count" dataDxfId="18" totalsRowDxfId="1">
+  <tableColumns count="14">
+    <tableColumn id="9" name="dataset" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="13"/>
+    <tableColumn id="1" name="dataset id" dataDxfId="26" totalsRowDxfId="12"/>
+    <tableColumn id="2" name="aggregation" dataDxfId="25" totalsRowDxfId="11"/>
+    <tableColumn id="3" name="answertype" dataDxfId="24" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="id" dataDxfId="23" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="string" dataDxfId="22" totalsRowDxfId="8"/>
+    <tableColumn id="6" name="lang" dataDxfId="21" totalsRowDxfId="7"/>
+    <tableColumn id="7" name="keywords" dataDxfId="20" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="query" dataDxfId="19" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="aggregate function" dataDxfId="18" totalsRowDxfId="4"/>
+    <tableColumn id="11" name="grouping" dataDxfId="17" totalsRowDxfId="3"/>
+    <tableColumn id="14" name="real aggregation" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="avaliação" dataDxfId="13" totalsRowDxfId="0"/>
+    <tableColumn id="12" name="avaliação" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="13" name="Status" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6734,10 +6787,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:L74">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>J2="could be"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>J2="no"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6751,10 +6804,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6773,7 +6826,7 @@
     <col min="13" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
@@ -6813,8 +6866,11 @@
       <c r="M1" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>197</v>
       </c>
@@ -6851,8 +6907,11 @@
       <c r="M2" s="13" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>197</v>
       </c>
@@ -6889,8 +6948,9 @@
       <c r="M3" s="13" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>197</v>
       </c>
@@ -6927,8 +6987,9 @@
       <c r="M4" s="13" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>197</v>
       </c>
@@ -6965,8 +7026,9 @@
       <c r="M5" s="13" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>197</v>
       </c>
@@ -7003,8 +7065,9 @@
       <c r="M6" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>197</v>
       </c>
@@ -7041,8 +7104,9 @@
       <c r="M7" s="13" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>197</v>
       </c>
@@ -7077,8 +7141,9 @@
         <v>yes</v>
       </c>
       <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>197</v>
       </c>
@@ -7113,8 +7178,9 @@
         <v>yes</v>
       </c>
       <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>197</v>
       </c>
@@ -7149,8 +7215,9 @@
         <v>yes</v>
       </c>
       <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>197</v>
       </c>
@@ -7185,8 +7252,9 @@
         <v>yes</v>
       </c>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>197</v>
       </c>
@@ -7221,8 +7289,9 @@
         <v>yes</v>
       </c>
       <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>197</v>
       </c>
@@ -7257,8 +7326,9 @@
         <v>yes</v>
       </c>
       <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>197</v>
       </c>
@@ -7293,8 +7363,9 @@
         <v>yes</v>
       </c>
       <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>197</v>
       </c>
@@ -7329,8 +7400,9 @@
         <v>yes</v>
       </c>
       <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>197</v>
       </c>
@@ -7365,8 +7437,9 @@
         <v>yes</v>
       </c>
       <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
@@ -7405,8 +7478,9 @@
         <v>yes</v>
       </c>
       <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
@@ -7445,8 +7519,9 @@
         <v>yes</v>
       </c>
       <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
@@ -7485,8 +7560,9 @@
         <v>yes</v>
       </c>
       <c r="M19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
@@ -7525,8 +7601,9 @@
         <v>yes</v>
       </c>
       <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>75</v>
       </c>
@@ -7565,8 +7642,9 @@
         <v>yes</v>
       </c>
       <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>75</v>
       </c>
@@ -7605,8 +7683,9 @@
         <v>yes</v>
       </c>
       <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>75</v>
       </c>
@@ -7645,8 +7724,9 @@
         <v>yes</v>
       </c>
       <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
@@ -7685,8 +7765,9 @@
         <v>yes</v>
       </c>
       <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
@@ -7725,8 +7806,9 @@
         <v>yes</v>
       </c>
       <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
@@ -7765,8 +7847,9 @@
         <v>yes</v>
       </c>
       <c r="M26" s="13"/>
-    </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
@@ -7805,8 +7888,9 @@
         <v>yes</v>
       </c>
       <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>75</v>
       </c>
@@ -7845,8 +7929,9 @@
         <v>yes</v>
       </c>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>75</v>
       </c>
@@ -7885,8 +7970,9 @@
         <v>yes</v>
       </c>
       <c r="M29" s="13"/>
-    </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>75</v>
       </c>
@@ -7925,8 +8011,9 @@
         <v>yes</v>
       </c>
       <c r="M30" s="13"/>
-    </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -7965,8 +8052,9 @@
         <v>yes</v>
       </c>
       <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>75</v>
       </c>
@@ -8005,8 +8093,9 @@
         <v>yes</v>
       </c>
       <c r="M32" s="13"/>
-    </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>75</v>
       </c>
@@ -8045,8 +8134,9 @@
         <v>yes</v>
       </c>
       <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>75</v>
       </c>
@@ -8085,8 +8175,9 @@
         <v>yes</v>
       </c>
       <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>75</v>
       </c>
@@ -8125,8 +8216,9 @@
         <v>yes</v>
       </c>
       <c r="M35" s="13"/>
-    </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>75</v>
       </c>
@@ -8165,8 +8257,9 @@
         <v>yes</v>
       </c>
       <c r="M36" s="13"/>
-    </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
@@ -8205,8 +8298,9 @@
         <v>yes</v>
       </c>
       <c r="M37" s="13"/>
-    </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>75</v>
       </c>
@@ -8245,8 +8339,9 @@
         <v>yes</v>
       </c>
       <c r="M38" s="13"/>
-    </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>75</v>
       </c>
@@ -8285,8 +8380,9 @@
         <v>yes</v>
       </c>
       <c r="M39" s="13"/>
-    </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -8325,8 +8421,9 @@
         <v>yes</v>
       </c>
       <c r="M40" s="13"/>
-    </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>75</v>
       </c>
@@ -8365,8 +8462,9 @@
         <v>yes</v>
       </c>
       <c r="M41" s="13"/>
-    </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>75</v>
       </c>
@@ -8405,8 +8503,9 @@
         <v>yes</v>
       </c>
       <c r="M42" s="13"/>
-    </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
@@ -8445,8 +8544,9 @@
         <v>yes</v>
       </c>
       <c r="M43" s="13"/>
-    </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>75</v>
       </c>
@@ -8485,8 +8585,9 @@
         <v>yes</v>
       </c>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N44" s="13"/>
+    </row>
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>75</v>
       </c>
@@ -8525,8 +8626,9 @@
         <v>yes</v>
       </c>
       <c r="M45" s="13"/>
-    </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N45" s="13"/>
+    </row>
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>75</v>
       </c>
@@ -8565,8 +8667,9 @@
         <v>yes</v>
       </c>
       <c r="M46" s="13"/>
-    </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>75</v>
       </c>
@@ -8605,8 +8708,9 @@
         <v>yes</v>
       </c>
       <c r="M47" s="13"/>
-    </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>75</v>
       </c>
@@ -8645,8 +8749,9 @@
         <v>yes</v>
       </c>
       <c r="M48" s="13"/>
-    </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>75</v>
       </c>
@@ -8685,8 +8790,9 @@
         <v>yes</v>
       </c>
       <c r="M49" s="13"/>
-    </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>75</v>
       </c>
@@ -8725,8 +8831,9 @@
         <v>yes</v>
       </c>
       <c r="M50" s="13"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N50" s="13"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>82</v>
       </c>
@@ -8745,13 +8852,14 @@
         <v>15</v>
       </c>
       <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:L50">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>J2="could be"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>J2="no"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/datasets/complete-set.xlsx
+++ b/datasets/complete-set.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12100"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="1" r:id="rId1"/>
     <sheet name="RealAggregation" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Final!$B$1:$I$74</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RealAggregation!$B$1:$I$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Final!$B$1:$I$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RealAggregation!$B$1:$K$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="281">
   <si>
     <t>id</t>
   </si>
@@ -2150,12 +2150,942 @@
   <si>
     <t>OK</t>
   </si>
+  <si>
+    <t>keyword without aggregation</t>
+  </si>
+  <si>
+    <t>production oil state Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>query without aggregation</t>
+  </si>
+  <si>
+    <t>SELECT AVG(oil_production_year)
+FROM (SELECT sum(oil_production) as oil_production_year
+   FROM nlidb_result_set
+   WHERE state = 'Maranhão'
+  GROUP BY year)</t>
+  </si>
+  <si>
+    <t>year production oil state Rio de Janeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT year, oil_production
+FROM nlidb_result_set
+WHERE state = 'Maranhão'
+</t>
+  </si>
+  <si>
+    <t>SELECT oil_production
+FROM nlidb_result_set
+WHERE state = 'Rio de Janeiro'</t>
+  </si>
+  <si>
+    <t>SELECT avg(oil_production)
+FROM nlidb_result_set
+WHERE state = 'Rio de Janeiro'</t>
+  </si>
+  <si>
+    <t>query with aggregation</t>
+  </si>
+  <si>
+    <t>oil production operator Petrobras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gas production field</t>
+  </si>
+  <si>
+    <t>gas production month field</t>
+  </si>
+  <si>
+    <t>field gas production month</t>
+  </si>
+  <si>
+    <t>month gas production field</t>
+  </si>
+  <si>
+    <t>petroleum production field state Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>petroleum production field Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>production oil field state Rio de Janeiro and year 2016</t>
+  </si>
+  <si>
+    <t>production oil field state year 2016</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">operators produced </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>less than 1.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cubic meters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oil </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>per</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> month</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>years Petrobras produce</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more than 1.000 cubic meters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oil  field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">operators produced </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>less than 1.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cubic meters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oil </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>month</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fields produced</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more than 1.000 cubic meters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oil </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> month</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fields Petrobras’s production </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>more than average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fields</t>
+    </r>
+  </si>
+  <si>
+    <t>How many fields are there in Rio de Janeiro?</t>
+  </si>
+  <si>
+    <t>Which field produces the most oil per month?</t>
+  </si>
+  <si>
+    <t>Which basin has the highest monthly production?</t>
+  </si>
+  <si>
+    <t>What was the mean yearly gas production per field?</t>
+  </si>
+  <si>
+    <t>What was the mean yearly petroleum production by field by Rio de Janeiro?</t>
+  </si>
+  <si>
+    <t>What was the average yearly production of oil per field and state in the year of 2016?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">average </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> production oil state Rio de Janeiro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">average </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>production oil state Maranhão</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> month</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oil production operator Petrobras</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> year</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gas production </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>per</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> year</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> production oil </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>per</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> state year 2016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> month</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> production oil </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>per</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field state Rio de Janeiro and year 2016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> year</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> petroleum production </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field Rio de Janeiro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> month</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> petroleum production </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field state Rio de Janeiro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how many</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fields Rio de Janeiro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">field produces </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>most</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oil </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>per</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> month</t>
+    </r>
+  </si>
+  <si>
+    <t>Which state has the lowest monthly production?</t>
+  </si>
+  <si>
+    <r>
+      <t>state low</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> month</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> production</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>basin high</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">est </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>production</t>
+    </r>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2197,6 +3127,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2224,7 +3168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2247,57 +3191,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="94">
     <dxf>
       <font>
         <b/>
@@ -2577,7 +3480,167 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2587,14 +3650,14 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="9"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2637,7 +3700,99 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2685,6 +3840,29 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
@@ -2692,6 +3870,37 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2741,6 +3950,109 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2782,30 +4094,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2877,6 +4165,215 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2980,53 +4477,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3074,29 +4525,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
@@ -3104,30 +4532,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3170,6 +4574,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3217,6 +4622,30 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3311,75 +4740,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
@@ -3413,146 +4773,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3573,16 +4793,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3598,23 +4808,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:L75" totalsRowCount="1" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:L79" totalsRowCount="1" headerRowDxfId="93" dataDxfId="92">
   <sortState ref="A2:L74">
     <sortCondition ref="A3"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="9" name="dataset" totalsRowLabel="Total" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="1" name="dataset id" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="2" name="aggregation" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="3" name="answertype" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="4" name="id" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="5" name="string" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="6" name="lang" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="7" name="keywords" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="8" name="query" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="10" name="aggregate function" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="11" name="grouping" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="14" name="real aggregation" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="9" name="dataset" totalsRowLabel="Total" dataDxfId="91" totalsRowDxfId="11"/>
+    <tableColumn id="1" name="dataset id" dataDxfId="90" totalsRowDxfId="10"/>
+    <tableColumn id="2" name="aggregation" dataDxfId="89" totalsRowDxfId="9"/>
+    <tableColumn id="3" name="answertype" dataDxfId="88" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="id" dataDxfId="87" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="string" dataDxfId="86" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="lang" dataDxfId="85" totalsRowDxfId="5"/>
+    <tableColumn id="7" name="keywords" dataDxfId="84" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="query" dataDxfId="83" totalsRowDxfId="3"/>
+    <tableColumn id="10" name="aggregate function" dataDxfId="82" totalsRowDxfId="2"/>
+    <tableColumn id="11" name="grouping" dataDxfId="81" totalsRowDxfId="1"/>
+    <tableColumn id="14" name="real aggregation" totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3623,34 +4833,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela23" displayName="Tabela23" ref="A1:N51" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:N50">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ANP"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela23" displayName="Tabela23" ref="A1:P51" totalsRowCount="1" headerRowDxfId="77" dataDxfId="76">
   <sortState ref="A2:L74">
     <sortCondition ref="A3"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="9" name="dataset" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="13"/>
-    <tableColumn id="1" name="dataset id" dataDxfId="26" totalsRowDxfId="12"/>
-    <tableColumn id="2" name="aggregation" dataDxfId="25" totalsRowDxfId="11"/>
-    <tableColumn id="3" name="answertype" dataDxfId="24" totalsRowDxfId="10"/>
-    <tableColumn id="4" name="id" dataDxfId="23" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="string" dataDxfId="22" totalsRowDxfId="8"/>
-    <tableColumn id="6" name="lang" dataDxfId="21" totalsRowDxfId="7"/>
-    <tableColumn id="7" name="keywords" dataDxfId="20" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="query" dataDxfId="19" totalsRowDxfId="5"/>
-    <tableColumn id="10" name="aggregate function" dataDxfId="18" totalsRowDxfId="4"/>
-    <tableColumn id="11" name="grouping" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="14" name="real aggregation" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="2">
+  <tableColumns count="16">
+    <tableColumn id="9" name="dataset" totalsRowLabel="Total" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="1" name="dataset id" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="2" name="aggregation" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="3" name="answertype" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="4" name="id" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="5" name="string" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="6" name="lang" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="7" name="keywords" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="16" name="keyword without aggregation" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="15" name="query without aggregation" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="8" name="query with aggregation" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="10" name="aggregate function" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="11" name="grouping" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="14" name="real aggregation" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="avaliação" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="13" name="Status" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="12" name="avaliação" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="13" name="Status" dataDxfId="45" totalsRowDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3919,10 +5124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3936,7 +5141,7 @@
     <col min="8" max="8" width="66.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6328125" style="3" customWidth="1"/>
     <col min="10" max="10" width="16.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.7265625" style="3"/>
   </cols>
@@ -4000,14 +5205,14 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="L2" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -4035,14 +5240,14 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="L3" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -4070,14 +5275,14 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="L4" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -4099,20 +5304,20 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="L5" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -4244,15 +5449,15 @@
       <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H9" t="s">
-        <v>224</v>
+      <c r="H9" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="L9" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -4274,20 +5479,20 @@
         <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="L10" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -4315,14 +5520,14 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="L11" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -4344,20 +5549,20 @@
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="L12" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -4374,27 +5579,27 @@
       <c r="C13" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="3">
         <v>12</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
-        <v>216</v>
-      </c>
-      <c r="I13" s="5"/>
+      <c r="F13" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I13" s="15"/>
       <c r="J13" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="9" t="str">
+        <v>80</v>
+      </c>
+      <c r="L13" s="16" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
@@ -4409,27 +5614,27 @@
       <c r="C14" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="3">
         <v>13</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s">
-        <v>218</v>
-      </c>
-      <c r="I14" s="5"/>
+      <c r="F14" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="15"/>
       <c r="J14" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="9" t="str">
+        <v>80</v>
+      </c>
+      <c r="L14" s="16" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
@@ -4444,27 +5649,27 @@
       <c r="C15" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="3">
         <v>14</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>219</v>
-      </c>
-      <c r="I15" s="5"/>
+      <c r="F15" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I15" s="15"/>
       <c r="J15" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="9" t="str">
+        <v>280</v>
+      </c>
+      <c r="L15" s="16" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
@@ -4479,25 +5684,25 @@
       <c r="C16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="3">
         <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>220</v>
+        <v>277</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="L16" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -4506,110 +5711,98 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="C17" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="3">
         <v>16</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="H17" t="s">
+        <v>216</v>
+      </c>
+      <c r="I17" s="5"/>
       <c r="J17" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L17" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="C18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="H18" t="s">
+        <v>218</v>
+      </c>
+      <c r="I18" s="5"/>
       <c r="J18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="C19" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="H19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I19" s="5"/>
       <c r="J19" s="8" t="s">
         <v>79</v>
       </c>
@@ -4623,37 +5816,33 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="C20" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="H20" t="s">
+        <v>220</v>
+      </c>
+      <c r="I20" s="5"/>
       <c r="J20" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -4674,19 +5863,19 @@
         <v>16</v>
       </c>
       <c r="E21" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>80</v>
@@ -4710,32 +5899,32 @@
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E22" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L22" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -4752,29 +5941,29 @@
         <v>16</v>
       </c>
       <c r="E23" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L23" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -4788,32 +5977,32 @@
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E24" s="3">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L24" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -4830,19 +6019,19 @@
         <v>16</v>
       </c>
       <c r="E25" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>80</v>
@@ -4869,19 +6058,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="3">
+        <v>14</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="I26" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>79</v>
@@ -4905,32 +6094,32 @@
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E27" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L27" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -4947,19 +6136,19 @@
         <v>16</v>
       </c>
       <c r="E28" s="3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>80</v>
@@ -4986,29 +6175,29 @@
         <v>16</v>
       </c>
       <c r="E29" s="3">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L29" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -5025,19 +6214,19 @@
         <v>8</v>
       </c>
       <c r="E30" s="3">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>79</v>
@@ -5064,19 +6253,19 @@
         <v>8</v>
       </c>
       <c r="E31" s="3">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>79</v>
@@ -5103,19 +6292,19 @@
         <v>16</v>
       </c>
       <c r="E32" s="3">
+        <v>23</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="G32" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>80</v>
@@ -5139,28 +6328,28 @@
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E33" s="3">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L33" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -5178,28 +6367,28 @@
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E34" s="3">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L34" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -5217,32 +6406,32 @@
         <v>1</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L35" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -5259,29 +6448,29 @@
         <v>16</v>
       </c>
       <c r="E36" s="3">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L36" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -5295,22 +6484,22 @@
         <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E37" s="3">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>79</v>
@@ -5328,28 +6517,28 @@
         <v>75</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C38" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E38" s="3">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>85</v>
+      <c r="H38" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>79</v>
@@ -5367,7 +6556,7 @@
         <v>75</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C39" s="3" t="b">
         <v>1</v>
@@ -5376,19 +6565,19 @@
         <v>16</v>
       </c>
       <c r="E39" s="3">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>88</v>
+      <c r="H39" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>80</v>
@@ -5406,7 +6595,7 @@
         <v>75</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C40" s="3" t="b">
         <v>1</v>
@@ -5415,29 +6604,29 @@
         <v>16</v>
       </c>
       <c r="E40" s="3">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>91</v>
+      <c r="H40" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L40" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -5445,28 +6634,28 @@
         <v>75</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C41" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E41" s="3">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>94</v>
+      <c r="H41" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>79</v>
@@ -5490,32 +6679,32 @@
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L42" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -5529,32 +6718,32 @@
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E43" s="3">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L43" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -5568,22 +6757,22 @@
         <v>1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="E44" s="3">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>80</v>
@@ -5610,19 +6799,19 @@
         <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>79</v>
@@ -5649,29 +6838,29 @@
         <v>16</v>
       </c>
       <c r="E46" s="3">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L46" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -5688,19 +6877,19 @@
         <v>8</v>
       </c>
       <c r="E47" s="3">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>79</v>
@@ -5724,22 +6913,22 @@
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="E48" s="3">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>80</v>
@@ -5766,19 +6955,19 @@
         <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>79</v>
@@ -5805,25 +6994,25 @@
         <v>16</v>
       </c>
       <c r="E50" s="3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L50" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -5841,28 +7030,28 @@
         <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E51" s="3">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L51" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -5880,32 +7069,32 @@
         <v>1</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E52" s="3">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L52" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -5919,28 +7108,28 @@
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E53" s="3">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L53" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -5958,25 +7147,25 @@
         <v>1</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E54" s="3">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>80</v>
@@ -5997,32 +7186,32 @@
         <v>1</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="E55" s="3">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L55" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -6036,32 +7225,32 @@
         <v>1</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E56" s="3">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L56" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -6078,25 +7267,25 @@
         <v>16</v>
       </c>
       <c r="E57" s="3">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L57" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -6114,32 +7303,32 @@
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L58" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -6153,32 +7342,32 @@
         <v>1</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="E59" s="3">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L59" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -6195,19 +7384,19 @@
         <v>16</v>
       </c>
       <c r="E60" s="3">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>80</v>
@@ -6234,29 +7423,29 @@
         <v>16</v>
       </c>
       <c r="E61" s="3">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L61" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -6273,29 +7462,29 @@
         <v>16</v>
       </c>
       <c r="E62" s="3">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L62" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
@@ -6309,32 +7498,32 @@
         <v>1</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="E63" s="3">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L63" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -6348,22 +7537,22 @@
         <v>1</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E64" s="3">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>80</v>
@@ -6387,32 +7576,32 @@
         <v>1</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E65" s="3">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L65" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
@@ -6426,28 +7615,28 @@
         <v>1</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E66" s="3">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L66" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
@@ -6465,32 +7654,32 @@
         <v>1</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="E67" s="3">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L67" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -6504,22 +7693,22 @@
         <v>1</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E68" s="3">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="J68" s="8" t="s">
         <v>80</v>
@@ -6546,19 +7735,19 @@
         <v>8</v>
       </c>
       <c r="E69" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>79</v>
@@ -6585,19 +7774,19 @@
         <v>8</v>
       </c>
       <c r="E70" s="3">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>79</v>
@@ -6624,19 +7813,19 @@
         <v>8</v>
       </c>
       <c r="E71" s="3">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>79</v>
@@ -6660,32 +7849,32 @@
         <v>1</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E72" s="3">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L72" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -6699,32 +7888,32 @@
         <v>1</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E73" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L73" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
@@ -6738,60 +7927,219 @@
         <v>1</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E74" s="3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L74" s="9" t="str">
         <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="3">
+        <v>86</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L75" s="9" t="str">
+        <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
+        <v>78</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L76" s="9" t="str">
+        <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="3">
+        <v>5</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L77" s="9" t="str">
+        <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>no</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="10" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="3">
+        <v>60</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L78" s="9" t="str">
+        <f>IF(AND(Tabela2[[#This Row],[aggregate function]]="no",Tabela2[[#This Row],[grouping]]="no"),"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12">
         <f>SUBTOTAL(103,Tabela2[real aggregation])</f>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:L74">
-    <cfRule type="expression" dxfId="59" priority="1">
+  <conditionalFormatting sqref="J2:L78">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>J2="could be"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="41" priority="3">
       <formula>J2="no"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="1">
+      <formula>J2="candidate"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6804,10 +8152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6817,16 +8165,17 @@
     <col min="3" max="4" width="12.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="66.81640625" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="3"/>
+    <col min="7" max="7" width="6.54296875" style="3" customWidth="1"/>
+    <col min="8" max="9" width="66.81640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="24.08984375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.54296875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
@@ -6851,26 +8200,32 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>197</v>
       </c>
@@ -6893,25 +8248,33 @@
       <c r="H2" t="s">
         <v>228</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="9" t="str">
+      <c r="I2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>197</v>
       </c>
@@ -6934,23 +8297,31 @@
       <c r="H3" t="s">
         <v>227</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="9" t="str">
+      <c r="I3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>197</v>
       </c>
@@ -6973,23 +8344,25 @@
       <c r="H4" t="s">
         <v>226</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="9" t="str">
+      <c r="I4" t="s">
+        <v>247</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>197</v>
       </c>
@@ -7012,23 +8385,25 @@
       <c r="H5" t="s">
         <v>225</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" s="9" t="str">
+      <c r="I5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="O5" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>197</v>
       </c>
@@ -7051,23 +8426,25 @@
       <c r="H6" t="s">
         <v>214</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="9" t="str">
+      <c r="I6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>197</v>
       </c>
@@ -7090,23 +8467,25 @@
       <c r="H7" t="s">
         <v>215</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="9" t="str">
+      <c r="I7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>197</v>
       </c>
@@ -7129,21 +8508,23 @@
       <c r="H8" t="s">
         <v>217</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="9" t="str">
+      <c r="I8" t="s">
+        <v>250</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>197</v>
       </c>
@@ -7166,21 +8547,23 @@
       <c r="H9" t="s">
         <v>224</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="9" t="str">
+      <c r="I9" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>197</v>
       </c>
@@ -7203,21 +8586,23 @@
       <c r="H10" t="s">
         <v>223</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="9" t="str">
+      <c r="I10" t="s">
+        <v>253</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>197</v>
       </c>
@@ -7240,21 +8625,23 @@
       <c r="H11" t="s">
         <v>222</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="9" t="str">
+      <c r="I11" t="s">
+        <v>254</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>197</v>
       </c>
@@ -7277,21 +8664,23 @@
       <c r="H12" t="s">
         <v>221</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="9" t="str">
+      <c r="I12" t="s">
+        <v>255</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>197</v>
       </c>
@@ -7314,21 +8703,23 @@
       <c r="H13" t="s">
         <v>216</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="9" t="str">
+      <c r="I13" t="s">
+        <v>257</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>197</v>
       </c>
@@ -7351,21 +8742,23 @@
       <c r="H14" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="9" t="str">
+      <c r="I14" t="s">
+        <v>259</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>197</v>
       </c>
@@ -7386,23 +8779,25 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>219</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="9" t="str">
+        <v>256</v>
+      </c>
+      <c r="I15" t="s">
+        <v>258</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>197</v>
       </c>
@@ -7425,21 +8820,23 @@
       <c r="H16" t="s">
         <v>220</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="9" t="str">
+      <c r="I16" t="s">
+        <v>260</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
@@ -7464,23 +8861,24 @@
       <c r="H17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4"/>
+      <c r="K17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="9" t="str">
+      <c r="L17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
@@ -7505,23 +8903,24 @@
       <c r="H18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4"/>
+      <c r="K18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="9" t="str">
+      <c r="L18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
@@ -7546,23 +8945,24 @@
       <c r="H19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4"/>
+      <c r="K19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="9" t="str">
+      <c r="L19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
@@ -7587,23 +8987,24 @@
       <c r="H20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4"/>
+      <c r="K20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="9" t="str">
+      <c r="L20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>75</v>
       </c>
@@ -7628,23 +9029,24 @@
       <c r="H21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4"/>
+      <c r="K21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="9" t="str">
+      <c r="L21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>75</v>
       </c>
@@ -7669,23 +9071,24 @@
       <c r="H22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4"/>
+      <c r="K22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="9" t="str">
+      <c r="L22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>75</v>
       </c>
@@ -7710,23 +9113,24 @@
       <c r="H23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4"/>
+      <c r="K23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="9" t="str">
+      <c r="L23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
@@ -7751,23 +9155,24 @@
       <c r="H24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4"/>
+      <c r="K24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L24" s="9" t="str">
+      <c r="L24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
@@ -7792,23 +9197,24 @@
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4"/>
+      <c r="K25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L25" s="9" t="str">
+      <c r="L25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N25" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
@@ -7833,23 +9239,24 @@
       <c r="H26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4"/>
+      <c r="K26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26" s="9" t="str">
+      <c r="L26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
@@ -7874,23 +9281,24 @@
       <c r="H27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4"/>
+      <c r="K27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27" s="9" t="str">
+      <c r="L27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>75</v>
       </c>
@@ -7915,23 +9323,24 @@
       <c r="H28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4"/>
+      <c r="K28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="9" t="str">
+      <c r="L28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>75</v>
       </c>
@@ -7956,23 +9365,24 @@
       <c r="H29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="5"/>
+      <c r="K29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29" s="9" t="str">
+      <c r="L29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N29" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>75</v>
       </c>
@@ -7997,23 +9407,24 @@
       <c r="H30" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="5"/>
+      <c r="K30" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L30" s="9" t="str">
+      <c r="L30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N30" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -8038,23 +9449,24 @@
       <c r="H31" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="5"/>
+      <c r="K31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L31" s="9" t="str">
+      <c r="L31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N31" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>75</v>
       </c>
@@ -8079,23 +9491,24 @@
       <c r="H32" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="5"/>
+      <c r="K32" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L32" s="9" t="str">
+      <c r="L32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N32" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>75</v>
       </c>
@@ -8120,23 +9533,24 @@
       <c r="H33" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="5"/>
+      <c r="K33" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L33" s="9" t="str">
+      <c r="L33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>75</v>
       </c>
@@ -8161,23 +9575,24 @@
       <c r="H34" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="5"/>
+      <c r="K34" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L34" s="9" t="str">
+      <c r="L34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N34" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>75</v>
       </c>
@@ -8202,23 +9617,24 @@
       <c r="H35" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="5"/>
+      <c r="K35" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L35" s="9" t="str">
+      <c r="L35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N35" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-    </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>75</v>
       </c>
@@ -8243,23 +9659,24 @@
       <c r="H36" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="5"/>
+      <c r="K36" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="L36" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="K36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L36" s="9" t="str">
+      <c r="M36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N36" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
@@ -8284,23 +9701,24 @@
       <c r="H37" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="5"/>
+      <c r="K37" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L37" s="9" t="str">
+      <c r="L37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N37" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>75</v>
       </c>
@@ -8325,23 +9743,24 @@
       <c r="H38" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="5"/>
+      <c r="K38" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L38" s="9" t="str">
+      <c r="L38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N38" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>75</v>
       </c>
@@ -8366,23 +9785,24 @@
       <c r="H39" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="5"/>
+      <c r="K39" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L39" s="9" t="str">
+      <c r="L39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N39" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -8407,23 +9827,24 @@
       <c r="H40" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="5"/>
+      <c r="K40" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L40" s="9" t="str">
+      <c r="L40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N40" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>75</v>
       </c>
@@ -8448,23 +9869,24 @@
       <c r="H41" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="5"/>
+      <c r="K41" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L41" s="9" t="str">
+      <c r="L41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N41" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>75</v>
       </c>
@@ -8489,23 +9911,24 @@
       <c r="H42" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="5"/>
+      <c r="K42" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L42" s="9" t="str">
+      <c r="L42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N42" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
@@ -8530,23 +9953,24 @@
       <c r="H43" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="5"/>
+      <c r="K43" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L43" s="9" t="str">
+      <c r="L43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N43" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>75</v>
       </c>
@@ -8571,23 +9995,24 @@
       <c r="H44" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="5"/>
+      <c r="K44" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L44" s="9" t="str">
+      <c r="L44" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N44" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-    </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>75</v>
       </c>
@@ -8612,23 +10037,24 @@
       <c r="H45" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="5"/>
+      <c r="K45" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L45" s="9" t="str">
+      <c r="L45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N45" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>75</v>
       </c>
@@ -8653,23 +10079,24 @@
       <c r="H46" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="5"/>
+      <c r="K46" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L46" s="9" t="str">
+      <c r="L46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N46" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>75</v>
       </c>
@@ -8694,23 +10121,24 @@
       <c r="H47" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="5"/>
+      <c r="K47" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L47" s="9" t="str">
+      <c r="L47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N47" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>75</v>
       </c>
@@ -8735,23 +10163,24 @@
       <c r="H48" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="5"/>
+      <c r="K48" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L48" s="9" t="str">
+      <c r="L48" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>75</v>
       </c>
@@ -8776,23 +10205,24 @@
       <c r="H49" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="5"/>
+      <c r="K49" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L49" s="9" t="str">
+      <c r="L49" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N49" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-    </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>75</v>
       </c>
@@ -8817,23 +10247,24 @@
       <c r="H50" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="5"/>
+      <c r="K50" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L50" s="9" t="str">
+      <c r="L50" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N50" s="9" t="str">
         <f>IF(AND(Tabela23[[#This Row],[aggregate function]]="no",Tabela23[[#This Row],[grouping]]="no"),"no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>82</v>
       </c>
@@ -8844,23 +10275,23 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12">
+      <c r="I51" s="10"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12">
         <f>SUBTOTAL(103,Tabela23[real aggregation])</f>
-        <v>15</v>
-      </c>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:L50">
-    <cfRule type="expression" dxfId="31" priority="1">
-      <formula>J2="could be"</formula>
+  <conditionalFormatting sqref="L2:N50">
+    <cfRule type="expression" dxfId="79" priority="1">
+      <formula>L2="could be"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
-      <formula>J2="no"</formula>
+    <cfRule type="expression" dxfId="78" priority="2">
+      <formula>L2="no"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
